--- a/src/assets/Summary_datos.xlsx
+++ b/src/assets/Summary_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\open_ai_assistant_v2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFD448-8820-4B10-9D2B-92174DF9E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AD1F7-94B0-4E98-B68E-D56C06EF7FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" xr2:uid="{EC975475-3123-4B78-8A3F-346E00D8290E}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>summary</t>
   </si>
   <si>
-    <t>"requirement": "Lauther wants the average density for the months of January and February for the measurement system with tag F980-40 on the platform Reconvavo"</t>
-  </si>
-  <si>
     <t>"request": "There is no request, Human is just greeting AI again"</t>
   </si>
   <si>
     <t>The human is asking for a list of measurement systems and AI provides a list of three systems: Medidor 1a, Medidor 2a, and Medidor 3a. The human then greets AI with a simple "Hola".</t>
+  </si>
+  <si>
+    <t>"request": "Lauther wants the average density for the months of January and February for the measurement system with tag F980-40 on the platform Reconvavo"</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6239E-D2E0-458D-82C5-40BD100D0261}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Summary_datos.xlsx
+++ b/src/assets/Summary_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\open_ai_assistant_v2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AD1F7-94B0-4E98-B68E-D56C06EF7FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0EFC7-9C07-4843-9BDC-082F991716AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" xr2:uid="{EC975475-3123-4B78-8A3F-346E00D8290E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC975475-3123-4B78-8A3F-346E00D8290E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6239E-D2E0-458D-82C5-40BD100D0261}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
